--- a/biology/Médecine/MenAfriVac/MenAfriVac.xlsx
+++ b/biology/Médecine/MenAfriVac/MenAfriVac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MenAfriVac est un vaccin contre la Neisseria meningitidis qui cause certaines formes de méningite. Il a été développé par le Projet Vaccins Méningite. Il est produit par le Serum Institute of India[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MenAfriVac est un vaccin contre la Neisseria meningitidis qui cause certaines formes de méningite. Il a été développé par le Projet Vaccins Méningite. Il est produit par le Serum Institute of India.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le MenAfriVac aurait été administré en décembre 2010 à 58,5 millions de personnes au Burkina Faso, au Mali, au Niger, au Nigeria, au Cameroun et au Tchad[2]. 
-Selon un article du The Lancet, le MenAfriVac aurait une efficacité de 94 % sur une population de 1,8 million de personnes vaccinées dans trois régions du Tchad[3]. Entre 2010 et 2015, ce vaccin aurait été inoculé à 237 millions de personnes[1]. Son action aurait presque supprimé l'occurrence de la méningite A en Afrique sub-saharienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le MenAfriVac aurait été administré en décembre 2010 à 58,5 millions de personnes au Burkina Faso, au Mali, au Niger, au Nigeria, au Cameroun et au Tchad. 
+Selon un article du The Lancet, le MenAfriVac aurait une efficacité de 94 % sur une population de 1,8 million de personnes vaccinées dans trois régions du Tchad. Entre 2010 et 2015, ce vaccin aurait été inoculé à 237 millions de personnes. Son action aurait presque supprimé l'occurrence de la méningite A en Afrique sub-saharienne.
 </t>
         </is>
       </c>
